--- a/StructureDefinition-RS-Location-Incident.xlsx
+++ b/StructureDefinition-RS-Location-Incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
